--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Dificultad-trans_bre.xlsx
@@ -627,7 +627,7 @@
         <v>0.8598647944869368</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4622086782861404</v>
+        <v>0.4622086782861407</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>13.61447953675122</v>
+        <v>13.55330718055017</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.67527325621565</v>
+        <v>11.41502287746809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.247591737972632</v>
+        <v>8.082732549391851</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.7228354850942655</v>
+        <v>0.7178846109019935</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5984127743919143</v>
+        <v>0.5806439030789388</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2353380101958483</v>
+        <v>0.2336557997417988</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.90325558831389</v>
+        <v>21.25184067486109</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.62588815991696</v>
+        <v>18.9455048374315</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.81015025868065</v>
+        <v>18.86661226748134</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.358776137333211</v>
+        <v>1.394675934309652</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.179178379627464</v>
+        <v>1.206493028886168</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.691950782251865</v>
+        <v>0.7182310718155079</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>0.6312329939460564</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8513391546780985</v>
+        <v>0.8513391546780984</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.155361408998952</v>
+        <v>7.34632582044839</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.643168728346392</v>
+        <v>5.772595790144709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12.12244168746609</v>
+        <v>12.1101579820069</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3511807555132236</v>
+        <v>0.3686449670559661</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3366459856383922</v>
+        <v>0.3446313834225241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.600702726085356</v>
+        <v>0.5944940461664907</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.69189838266188</v>
+        <v>14.50484984482704</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.08587227101274</v>
+        <v>12.95361442426072</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.1036919246678</v>
+        <v>19.03611612471333</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9160357828854228</v>
+        <v>0.8951523650815331</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9881305961575382</v>
+        <v>0.9955669360199955</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.200133000820007</v>
+        <v>1.172615091816539</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>8.190291490496657</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14.81461739335085</v>
+        <v>14.81461739335084</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.4092027309305695</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.778400193355855</v>
+        <v>3.610165877674818</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.921680522269297</v>
+        <v>4.143257053014176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12.03340234518012</v>
+        <v>11.69971088992722</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.1867010025965698</v>
+        <v>0.1736754992067003</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2465772350678755</v>
+        <v>0.2771267815878664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7858085481263052</v>
+        <v>0.7653868922379223</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.3398081183373</v>
+        <v>11.36588652041885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.86473524861258</v>
+        <v>12.21250965008609</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.06645223955396</v>
+        <v>17.98317639261573</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6899019587000487</v>
+        <v>0.7007740435552415</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9554397324161403</v>
+        <v>1.044423236039677</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.558781199791767</v>
+        <v>1.473318076883021</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>5.501242938778484</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10.43087622174829</v>
+        <v>10.4308762217483</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.8053551671908732</v>
@@ -873,7 +873,7 @@
         <v>0.4752943497050471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6114835408011061</v>
+        <v>0.6114835408011063</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.330134882341279</v>
+        <v>4.823248801760156</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7189214076251669</v>
+        <v>1.028443888204189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.580386766365034</v>
+        <v>6.433621721205658</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3419747511484166</v>
+        <v>0.2984077468783481</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05214811484744737</v>
+        <v>0.04433867175259693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3367250518080274</v>
+        <v>0.3310719160917488</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.17634180571561</v>
+        <v>15.25577848981473</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.2981004280707</v>
+        <v>9.884344049460557</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.12703290346152</v>
+        <v>13.88915273155802</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.501352738070628</v>
+        <v>1.488746453902236</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.04889011414188</v>
+        <v>1.013353561127366</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9239186939351586</v>
+        <v>0.9183691032388367</v>
       </c>
     </row>
     <row r="16">
@@ -955,7 +955,7 @@
         <v>0.7199139726418817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7821812986103829</v>
+        <v>0.7821812986103825</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.14039795284516</v>
+        <v>10.03833627534522</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.903050043581679</v>
+        <v>8.768425237170312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.27384791823957</v>
+        <v>12.39586527146093</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.561262698012462</v>
+        <v>0.5535884148967837</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5649894893884411</v>
+        <v>0.5516796463469285</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6420164268615549</v>
+        <v>0.6487860966494174</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.05544290637327</v>
+        <v>14.02754823227942</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.7505648675161</v>
+        <v>12.7229730869739</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.08553655780311</v>
+        <v>15.90235618343958</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.8887111996363649</v>
+        <v>0.8754871925030741</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9094235930895611</v>
+        <v>0.9057617624494002</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9323828347462496</v>
+        <v>0.9297777994027623</v>
       </c>
     </row>
     <row r="19">
